--- a/relacao_nome_matricula.xlsx
+++ b/relacao_nome_matricula.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SEVEN\teste joao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Publica\CLIENTES\PERMANENTE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92AAC248-0F51-41A7-96A1-22824CA796D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD66545-F027-4F83-82B9-06D24D8F4FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BBE1624D-F43E-46D0-ABE9-1859EA69BD10}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{BBE1624D-F43E-46D0-ABE9-1859EA69BD10}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="251">
   <si>
     <t>LOJA</t>
   </si>
@@ -485,10 +485,370 @@
     <t>05.230.009/0035-51</t>
   </si>
   <si>
-    <t>43 (41)</t>
-  </si>
-  <si>
     <t>03.015.859/0001-62</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>43</t>
   </si>
 </sst>
 </file>
@@ -498,7 +858,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -627,7 +987,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -635,19 +995,11 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -655,16 +1007,8 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -672,18 +1016,11 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -692,6 +1029,39 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hiperlink" xfId="3" builtinId="8"/>
@@ -1029,21 +1399,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B86EC9E-B14E-448A-A499-021DAADB2B88}">
-  <dimension ref="A1:G124"/>
+  <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="G117" sqref="G117"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="A125" sqref="A125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1057,891 +1427,891 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:4" ht="15">
+      <c r="A2" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="5">
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4">
         <v>7036692299</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="1:4" ht="15">
+      <c r="A3" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="5">
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4">
         <v>629535020</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="1:4" ht="15">
+      <c r="A4" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="8">
+      <c r="C4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6">
         <v>628987017</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>5</v>
-      </c>
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:4" ht="15">
+      <c r="A5" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4">
         <v>7029694090</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="1:4" ht="15">
+      <c r="A6" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="C6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4">
         <v>7024401752</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
-        <v>8</v>
-      </c>
-      <c r="B7" s="10" t="s">
+    <row r="7" spans="1:4" ht="15">
+      <c r="A7" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="C7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4">
         <v>7029953583</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
-        <v>8</v>
-      </c>
-      <c r="B8" s="10" t="s">
+    <row r="8" spans="1:4" ht="15">
+      <c r="A8" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="C8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4">
         <v>7047484213</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
-        <v>9</v>
-      </c>
-      <c r="B9" s="10" t="s">
+    <row r="9" spans="1:4" ht="15">
+      <c r="A9" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="5">
+      <c r="C9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="4">
         <v>7026228861</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
+    <row r="10" spans="1:4" ht="15">
+      <c r="A10" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2323156010</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15">
+      <c r="A11" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="4">
+        <v>7024386362</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15">
+      <c r="A12" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="5">
-        <v>2323156010</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="D12" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15">
+      <c r="A13" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="5">
-        <v>7024386362</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
+      <c r="C13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15">
+      <c r="A14" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="4">
+        <v>7008411918</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15">
+      <c r="A15" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1523553018</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15">
+      <c r="A16" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="4">
+        <v>526623074</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15">
+      <c r="A17" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="C17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="4">
+        <v>7023671900</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15">
+      <c r="A18" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
+      <c r="D18" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15">
+      <c r="A19" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="4">
+        <v>7076406744</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15">
+      <c r="A20" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="C20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="4">
+        <v>7020125050</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15">
+      <c r="A21" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="4">
+        <v>2622869015</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15">
+      <c r="A22" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="D22" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15">
+      <c r="A23" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="4">
+        <v>7024847270</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15">
+      <c r="A24" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="4">
+        <v>7034099647</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15">
+      <c r="A25" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="4">
+        <v>4013197720</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15">
+      <c r="A26" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="4">
+        <v>7026140433</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15">
+      <c r="A27" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="4">
+        <v>7036680983</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15">
+      <c r="A28" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15">
+      <c r="A29" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="4">
+        <v>7010144951</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15">
+      <c r="A30" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="4">
+        <v>7018771114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15">
+      <c r="A31" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15">
+      <c r="A32" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="4">
+        <v>7022930065</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15">
+      <c r="A33" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="4">
+        <v>7007931900</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15">
+      <c r="A34" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="4">
+        <v>7022290139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15">
+      <c r="A35" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15">
+      <c r="A36" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="4">
+        <v>7025112207</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15">
+      <c r="A37" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="4">
+        <v>7019902131</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15">
+      <c r="A38" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="4">
+        <v>7040596598</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15">
+      <c r="A39" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15">
+      <c r="A40" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="4">
+        <v>7023057160</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15">
+      <c r="A41" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="4">
+        <v>7024847807</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15">
+      <c r="A42" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="4">
+        <v>7038101581</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15">
+      <c r="A43" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="4">
+        <v>7034783556</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15">
+      <c r="A44" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15">
+      <c r="A45" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="4">
+        <v>7035198762</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15">
+      <c r="A46" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="3">
+        <v>781561037</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15">
+      <c r="A47" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="4">
+        <v>7030142327</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15">
+      <c r="A48" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="4">
+        <v>7030758174</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15">
+      <c r="A49" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="5">
-        <v>7008411918</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
-        <v>30</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="5">
-        <v>1523553018</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
-        <v>31</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="C49" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="9">
+        <v>7031338551</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15">
+      <c r="A50" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="4">
+        <v>7033221759</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15">
+      <c r="A51" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="4">
+        <v>7033460885</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15">
+      <c r="A52" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="4">
+        <v>7037711831</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15">
+      <c r="A53" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="4">
+        <v>7034847619</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15">
+      <c r="A54" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="6">
+        <v>7057331180</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15">
+      <c r="A55" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="3">
+        <v>7041645185</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15">
+      <c r="A56" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="4">
+        <v>7050815140</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15">
+      <c r="A57" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="4">
+        <v>7044379338</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15">
+      <c r="A58" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="4">
+        <v>7048428430</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15">
+      <c r="A59" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D59" s="13">
+        <v>7075527610</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15">
+      <c r="A60" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D60" s="12">
+        <v>7047539735</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15">
+      <c r="A61" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="12">
+        <v>7049916951</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15">
+      <c r="A62" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="12">
+        <v>7049960357</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15">
+      <c r="A63" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="4">
+        <v>7050687311</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15">
+      <c r="A64" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="5">
-        <v>526623074</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="11">
-        <v>32</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="5">
-        <v>7023671900</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>33</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
-        <v>34</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="5">
-        <v>7076406744</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>37</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="5">
-        <v>7020125050</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
-        <v>41</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="5">
-        <v>2622869015</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
-        <v>42</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
-        <v>46</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="5">
-        <v>7024847270</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
-        <v>51</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="5">
-        <v>7034099647</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
-        <v>53</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="5">
-        <v>4013197720</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="11">
-        <v>56</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="5">
-        <v>7026140433</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
-        <v>58</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="5">
-        <v>7036680983</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
-        <v>60</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
-        <v>61</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="5">
-        <v>7010144951</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="11">
-        <v>64</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="5">
-        <v>7018771114</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="9">
-        <v>65</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
-        <v>66</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="5">
-        <v>7022930065</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
-        <v>71</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="5">
-        <v>7007931900</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
-        <v>72</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="5">
-        <v>7022290139</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="9">
-        <v>74</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
-        <v>75</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="5">
-        <v>7025112207</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
-        <v>78</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="5">
-        <v>7019902131</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
-        <v>80</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D38" s="5">
-        <v>7040596598</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
-        <v>93</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
-        <v>94</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="5">
-        <v>7023057160</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="3">
-        <v>95</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="5">
-        <v>7024847807</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
-        <v>97</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D42" s="5">
-        <v>7038101581</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="3">
-        <v>100</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="5">
-        <v>7034783556</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="6">
-        <v>103</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="9">
-        <v>106</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="5">
-        <v>7035198762</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="9">
-        <v>110</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46" s="4">
-        <v>781561037</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="9">
-        <v>112</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" s="5">
-        <v>7030142327</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="9">
-        <v>115</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" s="5">
-        <v>7030758174</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="9">
-        <v>116</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D49" s="13">
-        <v>7031338551</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="9">
-        <v>125</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" s="5">
-        <v>7033221759</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="9">
-        <v>126</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D51" s="5">
-        <v>7033460885</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="3">
-        <v>128</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" s="5">
-        <v>7037711831</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="9">
-        <v>129</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" s="5">
-        <v>7034847619</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="6">
-        <v>145</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D54" s="8">
-        <v>7057331180</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="14">
-        <v>151</v>
-      </c>
-      <c r="B55" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D55" s="4">
-        <v>7041645185</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A56" s="5">
-        <v>154</v>
-      </c>
-      <c r="B56" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D56" s="5">
-        <v>7050815140</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="5">
-        <v>158</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D57" s="5">
-        <v>7044379338</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="3">
-        <v>160</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D58" s="5">
-        <v>7048428430</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="17">
-        <v>162</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C59" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D59" s="19">
-        <v>7075527610</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="4">
-        <v>163</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C60" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D60" s="18">
-        <v>7047539735</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="4">
-        <v>168</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C61" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" s="18">
-        <v>7049916951</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="4">
-        <v>169</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C62" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D62" s="18">
-        <v>7049960357</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="16">
-        <v>36</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D63" s="5">
-        <v>7050687311</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="9">
-        <v>21</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D64" s="5" t="s">
+      <c r="D64" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>4</v>
+    <row r="65" spans="1:4">
+      <c r="A65" s="24" t="s">
+        <v>192</v>
       </c>
       <c r="B65" t="s">
         <v>77</v>
@@ -1953,9 +2323,9 @@
         <v>394971</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>10</v>
+    <row r="66" spans="1:4">
+      <c r="A66" s="24" t="s">
+        <v>193</v>
       </c>
       <c r="B66" t="s">
         <v>79</v>
@@ -1967,9 +2337,9 @@
         <v>323730</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>12</v>
+    <row r="67" spans="1:4">
+      <c r="A67" s="24" t="s">
+        <v>194</v>
       </c>
       <c r="B67" t="s">
         <v>80</v>
@@ -1981,9 +2351,9 @@
         <v>330809</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>13</v>
+    <row r="68" spans="1:4">
+      <c r="A68" s="24" t="s">
+        <v>195</v>
       </c>
       <c r="B68" t="s">
         <v>81</v>
@@ -1995,9 +2365,9 @@
         <v>6080642</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>14</v>
+    <row r="69" spans="1:4">
+      <c r="A69" s="24" t="s">
+        <v>196</v>
       </c>
       <c r="B69" t="s">
         <v>82</v>
@@ -2009,9 +2379,9 @@
         <v>858005</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>15</v>
+    <row r="70" spans="1:4">
+      <c r="A70" s="24" t="s">
+        <v>197</v>
       </c>
       <c r="B70" t="s">
         <v>83</v>
@@ -2023,9 +2393,9 @@
         <v>274445</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>17</v>
+    <row r="71" spans="1:4">
+      <c r="A71" s="24" t="s">
+        <v>198</v>
       </c>
       <c r="B71" t="s">
         <v>65</v>
@@ -2037,9 +2407,9 @@
         <v>967580</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>19</v>
+    <row r="72" spans="1:4">
+      <c r="A72" s="24" t="s">
+        <v>199</v>
       </c>
       <c r="B72" t="s">
         <v>84</v>
@@ -2051,9 +2421,9 @@
         <v>388122</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>20</v>
+    <row r="73" spans="1:4">
+      <c r="A73" s="24" t="s">
+        <v>200</v>
       </c>
       <c r="B73" t="s">
         <v>85</v>
@@ -2065,9 +2435,9 @@
         <v>7929293</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>22</v>
+    <row r="74" spans="1:4">
+      <c r="A74" s="24" t="s">
+        <v>201</v>
       </c>
       <c r="B74" t="s">
         <v>86</v>
@@ -2079,9 +2449,9 @@
         <v>1028197</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>24</v>
+    <row r="75" spans="1:4">
+      <c r="A75" s="24" t="s">
+        <v>202</v>
       </c>
       <c r="B75" t="s">
         <v>87</v>
@@ -2093,9 +2463,9 @@
         <v>9706860</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>26</v>
+    <row r="76" spans="1:4">
+      <c r="A76" s="24" t="s">
+        <v>203</v>
       </c>
       <c r="B76" t="s">
         <v>88</v>
@@ -2107,9 +2477,9 @@
         <v>362344</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>27</v>
+    <row r="77" spans="1:4">
+      <c r="A77" s="24" t="s">
+        <v>204</v>
       </c>
       <c r="B77" t="s">
         <v>89</v>
@@ -2121,9 +2491,9 @@
         <v>561657</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <v>35</v>
+    <row r="78" spans="1:4">
+      <c r="A78" s="24" t="s">
+        <v>205</v>
       </c>
       <c r="B78" t="s">
         <v>90</v>
@@ -2135,9 +2505,9 @@
         <v>11811749</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <v>38</v>
+    <row r="79" spans="1:4">
+      <c r="A79" s="24" t="s">
+        <v>206</v>
       </c>
       <c r="B79" t="s">
         <v>91</v>
@@ -2149,9 +2519,9 @@
         <v>200313087</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80">
-        <v>39</v>
+    <row r="80" spans="1:4">
+      <c r="A80" s="24" t="s">
+        <v>207</v>
       </c>
       <c r="B80" t="s">
         <v>92</v>
@@ -2163,9 +2533,9 @@
         <v>12142697</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <v>40</v>
+    <row r="81" spans="1:4">
+      <c r="A81" s="24" t="s">
+        <v>208</v>
       </c>
       <c r="B81" t="s">
         <v>93</v>
@@ -2177,9 +2547,9 @@
         <v>2068710</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>45</v>
+    <row r="82" spans="1:4">
+      <c r="A82" s="24" t="s">
+        <v>209</v>
       </c>
       <c r="B82" t="s">
         <v>94</v>
@@ -2191,9 +2561,9 @@
         <v>10081054</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <v>47</v>
+    <row r="83" spans="1:4">
+      <c r="A83" s="24" t="s">
+        <v>210</v>
       </c>
       <c r="B83" t="s">
         <v>65</v>
@@ -2205,9 +2575,9 @@
         <v>1129562</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84">
-        <v>48</v>
+    <row r="84" spans="1:4">
+      <c r="A84" s="24" t="s">
+        <v>211</v>
       </c>
       <c r="B84" t="s">
         <v>95</v>
@@ -2219,9 +2589,9 @@
         <v>11483148</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <v>49</v>
+    <row r="85" spans="1:4">
+      <c r="A85" s="24" t="s">
+        <v>212</v>
       </c>
       <c r="B85" t="s">
         <v>96</v>
@@ -2233,9 +2603,9 @@
         <v>2444500</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86">
-        <v>50</v>
+    <row r="86" spans="1:4">
+      <c r="A86" s="24" t="s">
+        <v>213</v>
       </c>
       <c r="B86" t="s">
         <v>97</v>
@@ -2247,9 +2617,9 @@
         <v>2189704</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87">
-        <v>54</v>
+    <row r="87" spans="1:4">
+      <c r="A87" s="24" t="s">
+        <v>214</v>
       </c>
       <c r="B87" t="s">
         <v>98</v>
@@ -2261,9 +2631,9 @@
         <v>4350413</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88">
-        <v>55</v>
+    <row r="88" spans="1:4">
+      <c r="A88" s="24" t="s">
+        <v>215</v>
       </c>
       <c r="B88" t="s">
         <v>99</v>
@@ -2275,9 +2645,9 @@
         <v>10100989</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <v>62</v>
+    <row r="89" spans="1:4">
+      <c r="A89" s="24" t="s">
+        <v>216</v>
       </c>
       <c r="B89" t="s">
         <v>100</v>
@@ -2289,9 +2659,9 @@
         <v>997080</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90">
-        <v>67</v>
+    <row r="90" spans="1:4">
+      <c r="A90" s="24" t="s">
+        <v>217</v>
       </c>
       <c r="B90" t="s">
         <v>101</v>
@@ -2303,9 +2673,9 @@
         <v>2617919</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91">
-        <v>76</v>
+    <row r="91" spans="1:4">
+      <c r="A91" s="24" t="s">
+        <v>218</v>
       </c>
       <c r="B91" t="s">
         <v>102</v>
@@ -2317,9 +2687,9 @@
         <v>5378834</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92">
-        <v>79</v>
+    <row r="92" spans="1:4">
+      <c r="A92" s="24" t="s">
+        <v>219</v>
       </c>
       <c r="B92" t="s">
         <v>103</v>
@@ -2331,9 +2701,9 @@
         <v>12777080</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93">
-        <v>82</v>
+    <row r="93" spans="1:4">
+      <c r="A93" s="24" t="s">
+        <v>220</v>
       </c>
       <c r="B93" t="s">
         <v>104</v>
@@ -2345,9 +2715,9 @@
         <v>13509713</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94">
-        <v>83</v>
+    <row r="94" spans="1:4">
+      <c r="A94" s="24" t="s">
+        <v>221</v>
       </c>
       <c r="B94" t="s">
         <v>105</v>
@@ -2359,9 +2729,9 @@
         <v>13132431</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95">
-        <v>83</v>
+    <row r="95" spans="1:4">
+      <c r="A95" s="24" t="s">
+        <v>221</v>
       </c>
       <c r="B95" t="s">
         <v>105</v>
@@ -2373,9 +2743,9 @@
         <v>13132458</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96">
-        <v>84</v>
+    <row r="96" spans="1:4">
+      <c r="A96" s="24" t="s">
+        <v>222</v>
       </c>
       <c r="B96" t="s">
         <v>106</v>
@@ -2387,9 +2757,9 @@
         <v>1519956</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97">
-        <v>86</v>
+    <row r="97" spans="1:4">
+      <c r="A97" s="24" t="s">
+        <v>223</v>
       </c>
       <c r="B97" t="s">
         <v>107</v>
@@ -2401,9 +2771,9 @@
         <v>3352820</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98">
-        <v>87</v>
+    <row r="98" spans="1:4">
+      <c r="A98" s="24" t="s">
+        <v>224</v>
       </c>
       <c r="B98" t="s">
         <v>108</v>
@@ -2415,9 +2785,9 @@
         <v>12688</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99">
-        <v>88</v>
+    <row r="99" spans="1:4">
+      <c r="A99" s="24" t="s">
+        <v>225</v>
       </c>
       <c r="B99" t="s">
         <v>109</v>
@@ -2429,9 +2799,9 @@
         <v>14455536</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100">
-        <v>92</v>
+    <row r="100" spans="1:4">
+      <c r="A100" s="24" t="s">
+        <v>226</v>
       </c>
       <c r="B100" t="s">
         <v>110</v>
@@ -2443,9 +2813,9 @@
         <v>5656460</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101">
-        <v>96</v>
+    <row r="101" spans="1:4">
+      <c r="A101" s="24" t="s">
+        <v>227</v>
       </c>
       <c r="B101" t="s">
         <v>111</v>
@@ -2457,9 +2827,9 @@
         <v>540218</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102">
-        <v>102</v>
+    <row r="102" spans="1:4">
+      <c r="A102" s="24" t="s">
+        <v>228</v>
       </c>
       <c r="B102" t="s">
         <v>112</v>
@@ -2471,9 +2841,9 @@
         <v>2083566</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103">
-        <v>111</v>
+    <row r="103" spans="1:4">
+      <c r="A103" s="24" t="s">
+        <v>229</v>
       </c>
       <c r="B103" t="s">
         <v>113</v>
@@ -2485,9 +2855,9 @@
         <v>1773763</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104">
-        <v>119</v>
+    <row r="104" spans="1:4">
+      <c r="A104" s="24" t="s">
+        <v>230</v>
       </c>
       <c r="B104" t="s">
         <v>114</v>
@@ -2499,9 +2869,9 @@
         <v>13292242</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105">
-        <v>121</v>
+    <row r="105" spans="1:4">
+      <c r="A105" s="24" t="s">
+        <v>231</v>
       </c>
       <c r="B105" t="s">
         <v>115</v>
@@ -2513,9 +2883,9 @@
         <v>7640277</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106">
-        <v>122</v>
+    <row r="106" spans="1:4">
+      <c r="A106" s="24" t="s">
+        <v>232</v>
       </c>
       <c r="B106" t="s">
         <v>116</v>
@@ -2527,9 +2897,9 @@
         <v>606294</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107">
-        <v>123</v>
+    <row r="107" spans="1:4">
+      <c r="A107" s="24" t="s">
+        <v>233</v>
       </c>
       <c r="B107" t="s">
         <v>117</v>
@@ -2541,9 +2911,9 @@
         <v>806986</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108">
-        <v>127</v>
+    <row r="108" spans="1:4">
+      <c r="A108" s="24" t="s">
+        <v>234</v>
       </c>
       <c r="B108" t="s">
         <v>29</v>
@@ -2555,9 +2925,9 @@
         <v>6743447</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109">
-        <v>136</v>
+    <row r="109" spans="1:4">
+      <c r="A109" s="24" t="s">
+        <v>235</v>
       </c>
       <c r="B109" t="s">
         <v>118</v>
@@ -2569,9 +2939,9 @@
         <v>16982800</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110">
-        <v>144</v>
+    <row r="110" spans="1:4">
+      <c r="A110" s="24" t="s">
+        <v>236</v>
       </c>
       <c r="B110" t="s">
         <v>29</v>
@@ -2583,9 +2953,9 @@
         <v>16598768</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111">
-        <v>146</v>
+    <row r="111" spans="1:4">
+      <c r="A111" s="24" t="s">
+        <v>237</v>
       </c>
       <c r="B111" t="s">
         <v>119</v>
@@ -2597,9 +2967,9 @@
         <v>7849265</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112">
-        <v>147</v>
+    <row r="112" spans="1:4">
+      <c r="A112" s="24" t="s">
+        <v>238</v>
       </c>
       <c r="B112" t="s">
         <v>119</v>
@@ -2611,9 +2981,9 @@
         <v>11073039</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A113">
-        <v>149</v>
+    <row r="113" spans="1:7">
+      <c r="A113" s="24" t="s">
+        <v>239</v>
       </c>
       <c r="B113" t="s">
         <v>120</v>
@@ -2625,9 +2995,9 @@
         <v>3000900477</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A114">
-        <v>152</v>
+    <row r="114" spans="1:7">
+      <c r="A114" s="24" t="s">
+        <v>240</v>
       </c>
       <c r="B114" t="s">
         <v>65</v>
@@ -2639,9 +3009,9 @@
         <v>1619241</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A115">
-        <v>155</v>
+    <row r="115" spans="1:7">
+      <c r="A115" s="24" t="s">
+        <v>241</v>
       </c>
       <c r="B115" t="s">
         <v>121</v>
@@ -2653,9 +3023,9 @@
         <v>3001454560</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A116">
-        <v>156</v>
+    <row r="116" spans="1:7">
+      <c r="A116" s="24" t="s">
+        <v>242</v>
       </c>
       <c r="B116" t="s">
         <v>122</v>
@@ -2667,9 +3037,9 @@
         <v>1362682</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A117">
-        <v>157</v>
+    <row r="117" spans="1:7">
+      <c r="A117" s="24" t="s">
+        <v>243</v>
       </c>
       <c r="B117" t="s">
         <v>123</v>
@@ -2680,11 +3050,11 @@
       <c r="D117">
         <v>13689720</v>
       </c>
-      <c r="G117" s="20"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A118">
-        <v>159</v>
+      <c r="G117" s="14"/>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="24" t="s">
+        <v>244</v>
       </c>
       <c r="B118" t="s">
         <v>65</v>
@@ -2696,9 +3066,9 @@
         <v>3000284636</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A119">
-        <v>161</v>
+    <row r="119" spans="1:7">
+      <c r="A119" s="24" t="s">
+        <v>245</v>
       </c>
       <c r="B119" t="s">
         <v>124</v>
@@ -2710,9 +3080,9 @@
         <v>3000117675</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A120">
-        <v>165</v>
+    <row r="120" spans="1:7">
+      <c r="A120" s="24" t="s">
+        <v>246</v>
       </c>
       <c r="B120" t="s">
         <v>125</v>
@@ -2724,9 +3094,9 @@
         <v>3001003240</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A121">
-        <v>167</v>
+    <row r="121" spans="1:7">
+      <c r="A121" s="24" t="s">
+        <v>247</v>
       </c>
       <c r="B121" t="s">
         <v>126</v>
@@ -2738,9 +3108,9 @@
         <v>3001105018</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A122">
-        <v>172</v>
+    <row r="122" spans="1:7">
+      <c r="A122" s="24" t="s">
+        <v>248</v>
       </c>
       <c r="B122" t="s">
         <v>127</v>
@@ -2752,9 +3122,9 @@
         <v>3001838120</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A123">
-        <v>1000</v>
+    <row r="123" spans="1:7">
+      <c r="A123" s="24" t="s">
+        <v>249</v>
       </c>
       <c r="B123" t="s">
         <v>128</v>
@@ -2766,12 +3136,12 @@
         <v>359491</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
+    <row r="124" spans="1:7">
+      <c r="A124" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="B124" t="s">
         <v>129</v>
-      </c>
-      <c r="B124" t="s">
-        <v>130</v>
       </c>
       <c r="C124" t="s">
         <v>78</v>
@@ -2780,8 +3150,23 @@
         <v>1500589</v>
       </c>
     </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="B125" t="s">
+        <v>129</v>
+      </c>
+      <c r="C125" t="s">
+        <v>78</v>
+      </c>
+      <c r="D125">
+        <v>1500589</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>